--- a/myexcel.xlsx
+++ b/myexcel.xlsx
@@ -8,18 +8,26 @@
     <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="22260" windowHeight="12650" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1622880189" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1622880189" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1622880189" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1622880189"/>
+      <pm:revision xmlns:pm="smNativeData" day="1624433029" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1624433029" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1624433029" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1624433029"/>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>modified</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42,7 +50,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1622880189" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1624433029" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -57,7 +65,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1622880189" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1624433029" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -79,7 +87,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1622880189" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1624433029" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -101,7 +109,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1622880189"/>
+          <pm:border xmlns:pm="smNativeData" id="1624433029"/>
         </ext>
       </extLst>
     </border>
@@ -120,7 +128,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1622880189"/>
+          <pm:border xmlns:pm="smNativeData" id="1624433029"/>
         </ext>
       </extLst>
     </border>
@@ -137,7 +145,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1622880189" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1624433029" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -401,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -424,11 +432,16 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1622880189" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1624433029" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -437,16 +450,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1622880189" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1622880189" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1622880189" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1622880189" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1624433029" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1624433029" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1624433029" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1624433029" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1622880189" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1624433029" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
